--- a/vodafone-selenium-form/excelVodafone2.xlsx
+++ b/vodafone-selenium-form/excelVodafone2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t xml:space="preserve">informazioni</t>
   </si>
@@ -119,21 +119,6 @@
   </si>
   <si>
     <t xml:space="preserve">/home/lisa/vodafone_selenium/vodafone-selenium-form/src/main/resources/fileUpload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DWDM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIRCUITO DOWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:00-12:00 13:00-16:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDH/WDM - Punto Punto</t>
   </si>
 </sst>
 </file>
@@ -149,6 +134,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -259,18 +245,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R10" activeCellId="0" sqref="R10"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="23.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="4" style="1" width="23.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="49.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="49.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="1" width="23.48"/>
   </cols>
   <sheetData>
@@ -417,118 +403,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>123</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>1234</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>3333333333</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="1" t="n">
-        <v>3333333333</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>123</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>1234</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>3333333333</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="1" t="n">
-        <v>3333333333</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
@@ -538,10 +414,6 @@
   <hyperlinks>
     <hyperlink ref="L3" r:id="rId1" display="pao.vi@gmail.com"/>
     <hyperlink ref="P3" r:id="rId2" display="pao.vi@gmail.com"/>
-    <hyperlink ref="L4" r:id="rId3" display="pao.vi@gmail.com"/>
-    <hyperlink ref="P4" r:id="rId4" display="pao.vi@gmail.com"/>
-    <hyperlink ref="L5" r:id="rId5" display="pao.vi@gmail.com"/>
-    <hyperlink ref="P5" r:id="rId6" display="pao.vi@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
